--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/60.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/60.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1847513271842316</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.562325619108385</v>
+        <v>-1.567600157183863</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006629095669518072</v>
+        <v>0.01352329942081508</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1620978840383092</v>
+        <v>-0.149680447190368</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1824978175128979</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.57571579977329</v>
+        <v>-1.574543942537481</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01614246723865943</v>
+        <v>0.02381895849324289</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1274348349490254</v>
+        <v>-0.1137141102686473</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1891807538400219</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.641707338443382</v>
+        <v>-1.647313994553455</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04166181097198703</v>
+        <v>-0.03385467613033562</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1346957851555855</v>
+        <v>-0.1204540601460569</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1986399297495261</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.773945406881216</v>
+        <v>-1.782659176736737</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08362830878410597</v>
+        <v>-0.08204327152895617</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1419929378019355</v>
+        <v>-0.1279637053737824</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2013259277589262</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.799963155946756</v>
+        <v>-1.823410531787212</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1022174746066671</v>
+        <v>-0.1047201650095352</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1388149931960294</v>
+        <v>-0.1257270242024142</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1900296000181673</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.62335899754638</v>
+        <v>-1.645067082257798</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08539593225732664</v>
+        <v>-0.09992412874693199</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1305812991725055</v>
+        <v>-0.1209860786090565</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1633745274887543</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.321510924673668</v>
+        <v>-1.328146989289072</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09756624810322356</v>
+        <v>-0.1069190697219922</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09488884157789108</v>
+        <v>-0.08238955573564233</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1230424035056051</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8406764154604913</v>
+        <v>-0.8336405499882772</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02462462800302839</v>
+        <v>-0.04240317397811965</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.09470782937894151</v>
+        <v>-0.08586498995547424</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.07260546099936803</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3300047997839387</v>
+        <v>-0.3124340243328592</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01577549250307592</v>
+        <v>-0.04561889504293696</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02917354326358737</v>
+        <v>-0.01376232204693234</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.01446918021457072</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2196174930683207</v>
+        <v>0.2497442190500158</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05173238531006883</v>
+        <v>-0.07326811492770484</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04535311409175759</v>
+        <v>0.05896680547188724</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.04932965403180176</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8516900555325526</v>
+        <v>0.892381597856418</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1020537766180518</v>
+        <v>-0.1444295194017089</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1245184057975757</v>
+        <v>0.1313622409369911</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1167174877468787</v>
       </c>
       <c r="E13" t="n">
-        <v>1.503502391797017</v>
+        <v>1.563233269412135</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2513620824263925</v>
+        <v>-0.3002526903531131</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2268390927968482</v>
+        <v>0.234611599217831</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1875176503367127</v>
       </c>
       <c r="E14" t="n">
-        <v>2.157343638708837</v>
+        <v>2.222715800854697</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4871690350266911</v>
+        <v>-0.5372606195429642</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3374454164506475</v>
+        <v>0.3468785130446025</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2631919752289951</v>
       </c>
       <c r="E15" t="n">
-        <v>2.844719362999969</v>
+        <v>2.920598102780511</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7775881550596384</v>
+        <v>-0.8327291929170441</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4746384970823368</v>
+        <v>0.4890942886923623</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3442611983707162</v>
       </c>
       <c r="E16" t="n">
-        <v>3.515138179297328</v>
+        <v>3.591811798734127</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.014180543201466</v>
+        <v>-1.070402145185645</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6366129347597841</v>
+        <v>0.6500487619792067</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.431465098358696</v>
       </c>
       <c r="E17" t="n">
-        <v>4.163616743062877</v>
+        <v>4.243880700115363</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.286689686662694</v>
+        <v>-1.35574820159064</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8084312880218458</v>
+        <v>0.8204678122424321</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5243104015626524</v>
       </c>
       <c r="E18" t="n">
-        <v>4.801565118906924</v>
+        <v>4.895796921641833</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.504274219895694</v>
+        <v>-1.570582136409167</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9651185954708441</v>
+        <v>0.9758628499928426</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6189119222231422</v>
       </c>
       <c r="E19" t="n">
-        <v>5.289411883305496</v>
+        <v>5.378474607246052</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.719357636744948</v>
+        <v>-1.796938678205177</v>
       </c>
       <c r="G19" t="n">
-        <v>1.132940514183923</v>
+        <v>1.14445761209448</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7121068268692318</v>
       </c>
       <c r="E20" t="n">
-        <v>5.701129638883238</v>
+        <v>5.80223990517823</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.869725257421924</v>
+        <v>-1.949611449885298</v>
       </c>
       <c r="G20" t="n">
-        <v>1.260371528225306</v>
+        <v>1.272929052775043</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8004423383038453</v>
       </c>
       <c r="E21" t="n">
-        <v>6.006169822533947</v>
+        <v>6.101937867931245</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.073160145763992</v>
+        <v>-2.150114727613943</v>
       </c>
       <c r="G21" t="n">
-        <v>1.379192657673173</v>
+        <v>1.391444822513378</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8796828345453331</v>
       </c>
       <c r="E22" t="n">
-        <v>6.329542606890446</v>
+        <v>6.425871003094927</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.181374747362975</v>
+        <v>-2.256553835644099</v>
       </c>
       <c r="G22" t="n">
-        <v>1.478806031783809</v>
+        <v>1.489616395108902</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9481823996094219</v>
       </c>
       <c r="E23" t="n">
-        <v>6.459240208466501</v>
+        <v>6.557301599723534</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.274171044659257</v>
+        <v>-2.35005057144936</v>
       </c>
       <c r="G23" t="n">
-        <v>1.582618888910074</v>
+        <v>1.592283366314861</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.0045064156364</v>
       </c>
       <c r="E24" t="n">
-        <v>6.60703430788015</v>
+        <v>6.697508926972514</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.338269825335985</v>
+        <v>-2.408904720413914</v>
       </c>
       <c r="G24" t="n">
-        <v>1.587767505455849</v>
+        <v>1.600842882296494</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.047428238315285</v>
       </c>
       <c r="E25" t="n">
-        <v>6.685082046009845</v>
+        <v>6.780521121410791</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.342169457709007</v>
+        <v>-2.418499940977363</v>
       </c>
       <c r="G25" t="n">
-        <v>1.635806569037946</v>
+        <v>1.6494737770682</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.077021189897176</v>
       </c>
       <c r="E26" t="n">
-        <v>6.703071510547191</v>
+        <v>6.782277726750163</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.351296407583869</v>
+        <v>-2.439311621799201</v>
       </c>
       <c r="G26" t="n">
-        <v>1.681717558768044</v>
+        <v>1.682735949139526</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.093241783013647</v>
       </c>
       <c r="E27" t="n">
-        <v>6.653899153197758</v>
+        <v>6.725731089817436</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.277003492068038</v>
+        <v>-2.355130718163358</v>
       </c>
       <c r="G27" t="n">
-        <v>1.636595152617718</v>
+        <v>1.643758513638757</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.096391837214988</v>
       </c>
       <c r="E28" t="n">
-        <v>6.553627839094418</v>
+        <v>6.612238015095171</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.233403162408008</v>
+        <v>-2.297732536886007</v>
       </c>
       <c r="G28" t="n">
-        <v>1.599822917905891</v>
+        <v>1.595747782400843</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.087812665141828</v>
       </c>
       <c r="E29" t="n">
-        <v>6.419404932544624</v>
+        <v>6.462879340674949</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.149630716734143</v>
+        <v>-2.217931341455183</v>
       </c>
       <c r="G29" t="n">
-        <v>1.55693404488869</v>
+        <v>1.547792141832175</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.067968605648407</v>
       </c>
       <c r="E30" t="n">
-        <v>6.261974688070372</v>
+        <v>6.289468080062131</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.116248132200038</v>
+        <v>-2.180025025966459</v>
       </c>
       <c r="G30" t="n">
-        <v>1.486441598541238</v>
+        <v>1.479876364786293</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.038270629507693</v>
       </c>
       <c r="E31" t="n">
-        <v>6.006102139711731</v>
+        <v>6.022232687666821</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.967175929259892</v>
+        <v>-2.014830145166831</v>
       </c>
       <c r="G31" t="n">
-        <v>1.408751162752079</v>
+        <v>1.402599896026036</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.000827094497191</v>
       </c>
       <c r="E32" t="n">
-        <v>5.771921148863736</v>
+        <v>5.773948485491972</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.8564334529521</v>
+        <v>-1.898495178921058</v>
       </c>
       <c r="G32" t="n">
-        <v>1.33987051198484</v>
+        <v>1.324668635311318</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9571646019902297</v>
       </c>
       <c r="E33" t="n">
-        <v>5.441197695210763</v>
+        <v>5.429716799739997</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.800813913281819</v>
+        <v>-1.837208383404534</v>
       </c>
       <c r="G33" t="n">
-        <v>1.266626680213355</v>
+        <v>1.248440463285847</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9103795504909237</v>
       </c>
       <c r="E34" t="n">
-        <v>5.161266264583043</v>
+        <v>5.133409274174263</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.72047361630195</v>
+        <v>-1.759353462617198</v>
       </c>
       <c r="G34" t="n">
-        <v>1.156525616697493</v>
+        <v>1.135213397795082</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8627376121574852</v>
       </c>
       <c r="E35" t="n">
-        <v>4.780652700861324</v>
+        <v>4.744643865423328</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.676506540186658</v>
+        <v>-1.711742532236095</v>
       </c>
       <c r="G35" t="n">
-        <v>1.081172599303465</v>
+        <v>1.059148923758226</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8148014446068216</v>
       </c>
       <c r="E36" t="n">
-        <v>4.331701522969214</v>
+        <v>4.291586071643744</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.609949928652019</v>
+        <v>-1.636698022589842</v>
       </c>
       <c r="G36" t="n">
-        <v>1.02126385752764</v>
+        <v>0.9961157540266186</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7685150043053997</v>
       </c>
       <c r="E37" t="n">
-        <v>3.980970712265388</v>
+        <v>3.928020709024833</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.575639459845907</v>
+        <v>-1.600590810956765</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9395864313042256</v>
+        <v>0.915587361761754</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7239244853178346</v>
       </c>
       <c r="E38" t="n">
-        <v>3.654294061773279</v>
+        <v>3.589910383635596</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.487912291129774</v>
+        <v>-1.513500332975198</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8506921274096479</v>
+        <v>0.8239684307682049</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6799141731940909</v>
       </c>
       <c r="E39" t="n">
-        <v>3.24403227388274</v>
+        <v>3.172921238020618</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.465196834180723</v>
+        <v>-1.487364532475561</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7811000199995807</v>
+        <v>0.7564493065408906</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6365443996285688</v>
       </c>
       <c r="E40" t="n">
-        <v>2.851747358376576</v>
+        <v>2.773340743887225</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.460695139493803</v>
+        <v>-1.478637383457509</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7119691001920545</v>
+        <v>0.685750663688549</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5926570642744959</v>
       </c>
       <c r="E41" t="n">
-        <v>2.503174527888054</v>
+        <v>2.426659884382506</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.433450442523209</v>
+        <v>-1.447051541750368</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6614572525703941</v>
+        <v>0.6333798994846325</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5468787875741707</v>
       </c>
       <c r="E42" t="n">
-        <v>2.135502549381669</v>
+        <v>2.058885594633237</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.402676794682659</v>
+        <v>-1.413357301430245</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5948305971848573</v>
+        <v>0.5680895863330799</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5000020264359358</v>
       </c>
       <c r="E43" t="n">
-        <v>1.888612928148292</v>
+        <v>1.814305059450808</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.372936490395243</v>
+        <v>-1.385709655564598</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5200568188274681</v>
+        <v>0.4919290971298249</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4519962371101904</v>
       </c>
       <c r="E44" t="n">
-        <v>1.658960390312279</v>
+        <v>1.591814308616713</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.371374276417352</v>
+        <v>-1.381110371692158</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4457505241491053</v>
+        <v>0.4212509165260601</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4035910358223999</v>
       </c>
       <c r="E45" t="n">
-        <v>1.43945397973217</v>
+        <v>1.371059700873413</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.300058618069461</v>
+        <v>-1.309693976120503</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3928603336351595</v>
+        <v>0.3641455028052711</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3562588295543334</v>
       </c>
       <c r="E46" t="n">
-        <v>1.215856693455801</v>
+        <v>1.14693826622965</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.236897952789028</v>
+        <v>-1.248229316443272</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3479519940853296</v>
+        <v>0.3218941075321967</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3106470952100481</v>
       </c>
       <c r="E47" t="n">
-        <v>1.085433469064826</v>
+        <v>1.015896452324004</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.189609696327792</v>
+        <v>-1.19576725913032</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2756950723029002</v>
+        <v>0.2480190940930702</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2678079316603282</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9002611375776493</v>
+        <v>0.8421090011411954</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.11315093050105</v>
+        <v>-1.119972729372767</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2056905718830521</v>
+        <v>0.1837046727967241</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2288246963248728</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7385369689404888</v>
+        <v>0.6781056528163915</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.047467112569172</v>
+        <v>-1.058322335439223</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1610151871631747</v>
+        <v>0.1378298855064156</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1938383963125843</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6554319073740551</v>
+        <v>0.5955735342101112</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9846110199887114</v>
+        <v>-0.9987118702868836</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1361126306450766</v>
+        <v>0.1182569577330416</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1631006665617792</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5329055369146456</v>
+        <v>0.4744795211510854</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9635852725663768</v>
+        <v>-0.9775704324591334</v>
       </c>
       <c r="G51" t="n">
-        <v>0.117594295682974</v>
+        <v>0.1038940332511728</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1363917435393813</v>
       </c>
       <c r="E52" t="n">
-        <v>0.371573299038689</v>
+        <v>0.3291330214710586</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9530165211764033</v>
+        <v>-0.9713137064519631</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0652896402821521</v>
+        <v>0.04930705012446492</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1131086011448187</v>
       </c>
       <c r="E53" t="n">
-        <v>0.313975217332933</v>
+        <v>0.264072515111216</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9392595940562353</v>
+        <v>-0.9460562086220117</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06384469072879807</v>
+        <v>0.05026877580757964</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.09296540149677057</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1849387037878239</v>
+        <v>0.1533701762910173</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8965981668020621</v>
+        <v>-0.9108871123852298</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02241965549440657</v>
+        <v>0.01089311346912164</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.07530828273778403</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1133523141510686</v>
+        <v>0.09300024691265071</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9006583491254573</v>
+        <v>-0.9186722109591829</v>
       </c>
       <c r="G55" t="n">
-        <v>0.009290762003637536</v>
+        <v>-0.004274134783731792</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0593150408738406</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03043456086006967</v>
+        <v>0.0147101098382758</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9048043154909633</v>
+        <v>-0.9258890886303466</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02705806156455925</v>
+        <v>-0.03831859435834437</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.04465923829830106</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07218833781049257</v>
+        <v>-0.08290898204567156</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9273686666043692</v>
+        <v>-0.9515534704031543</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0674552623127414</v>
+        <v>-0.07597542781634202</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.03076910194260217</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.116575677031172</v>
+        <v>-0.1238917179069776</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9220107055154617</v>
+        <v>-0.9486218597897318</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09517531305796781</v>
+        <v>-0.1026959764195425</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.01728614627465004</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1952042282166265</v>
+        <v>-0.1978533023977756</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9329926369247766</v>
+        <v>-0.9563699689143345</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1127161821457427</v>
+        <v>-0.1163458702394621</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.004126909450683496</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2800627470841892</v>
+        <v>-0.2773947846735845</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.95863970448725</v>
+        <v>-0.9886452309966051</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1239735669012852</v>
+        <v>-0.1258608158277247</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.008779965855962971</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3644380420815126</v>
+        <v>-0.3556424232316843</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9403015947145363</v>
+        <v>-0.9694799741756479</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1605380310891002</v>
+        <v>-0.162107328153037</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.02189491250061699</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4854832605477781</v>
+        <v>-0.4792674590377616</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9654394670912689</v>
+        <v>-0.9983852613192137</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1810160198572221</v>
+        <v>-0.1844678437902345</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.03491160792173918</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5320033956778198</v>
+        <v>-0.5317861810390804</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9826639583356624</v>
+        <v>-1.024880725188068</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.213549421075386</v>
+        <v>-0.2176733511731938</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.04790757067285834</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6756436586303568</v>
+        <v>-0.6713843628881171</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.01929217029789</v>
+        <v>-1.063727517101769</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2601844596012828</v>
+        <v>-0.2656463059521962</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.06037353250045342</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.838826942992963</v>
+        <v>-0.8294843524984827</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.078532740956723</v>
+        <v>-1.124834087428904</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3193927628681295</v>
+        <v>-0.3262224318354532</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.07125185244195868</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9455147460442842</v>
+        <v>-0.9379736204341327</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.104750390450668</v>
+        <v>-1.153367119050283</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3550065195066788</v>
+        <v>-0.359132023623608</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.07873761416665423</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.02478549703123</v>
+        <v>-1.021716946754254</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.158392962104596</v>
+        <v>-1.210342676193564</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4051941191893513</v>
+        <v>-0.4182868102403304</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.08042221767739989</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.112652753449158</v>
+        <v>-1.117655773226213</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.211071447046727</v>
+        <v>-1.268340558756131</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4360244317182678</v>
+        <v>-0.4381178771495978</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.07437861048055609</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.256270980133997</v>
+        <v>-1.270093229047699</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.265478991993606</v>
+        <v>-1.324593641122735</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4667335447748442</v>
+        <v>-0.470024818757484</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.05915500439649705</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.308182130754494</v>
+        <v>-1.325733230966557</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.344028055213435</v>
+        <v>-1.409937744889219</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4993991635991974</v>
+        <v>-0.5058306057288321</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.0347820130184985</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.361583090473302</v>
+        <v>-1.381217404992406</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.370196123105059</v>
+        <v>-1.445317759688256</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5500778572477157</v>
+        <v>-0.5600539904385194</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.001785096841743679</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.43406824502832</v>
+        <v>-1.45156740260938</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.419089092060462</v>
+        <v>-1.492574535767066</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5333570521221385</v>
+        <v>-0.5502289630833606</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.03867438806747178</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.46185361756708</v>
+        <v>-1.49537471578386</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.426456288557709</v>
+        <v>-1.499732387721181</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5580597082118315</v>
+        <v>-0.5771037655604485</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.08449916085650135</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.504430834798264</v>
+        <v>-1.540797759586355</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.461076052121157</v>
+        <v>-1.532384627383003</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5650326129191935</v>
+        <v>-0.5833888239118021</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1339312850555475</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.493193912291298</v>
+        <v>-1.534729915873741</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.454735116090998</v>
+        <v>-1.524246161516318</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.584566190214535</v>
+        <v>-0.602217240640801</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.184842369716501</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.410524067011904</v>
+        <v>-1.448553155992089</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.511720904358568</v>
+        <v>-1.584859276848925</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.566375251229663</v>
+        <v>-0.5840294496941715</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2354399601956087</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.367321177180003</v>
+        <v>-1.390103529941709</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.522190492543899</v>
+        <v>-1.59348096658585</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5421259126469046</v>
+        <v>-0.5601909301020727</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2849145736583478</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.196585749073396</v>
+        <v>-1.220717036222057</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.473798848678631</v>
+        <v>-1.543043097862891</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5029375585838813</v>
+        <v>-0.5202281586313694</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3327348307792961</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.078586257606848</v>
+        <v>-1.098694351881464</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.458025603064077</v>
+        <v>-1.521893002929973</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5011179924796578</v>
+        <v>-0.5244213455705145</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3782996196735459</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9027281842699676</v>
+        <v>-0.9193144107606737</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.427939801579535</v>
+        <v>-1.489428858553147</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4885903742932256</v>
+        <v>-0.5104204454865449</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.4220890900515276</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7575099671483269</v>
+        <v>-0.7734894092677714</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.402291159997941</v>
+        <v>-1.458371887270763</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4597559180101183</v>
+        <v>-0.4786740538290313</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.4640601997462915</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5616956923820361</v>
+        <v>-0.567599838106035</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.400927272429334</v>
+        <v>-1.454001623180471</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4174242477618576</v>
+        <v>-0.4326292724736223</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.503648187190866</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3583953826748392</v>
+        <v>-0.3598765346679832</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.326078728163683</v>
+        <v>-1.365802248727948</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3353139662800859</v>
+        <v>-0.350468622379969</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.540342678992723</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1752063152805013</v>
+        <v>-0.1715120924028086</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.312234442982282</v>
+        <v>-1.336824556704802</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3140096174732812</v>
+        <v>-0.3279160764099727</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.5726520022537188</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01402855955875261</v>
+        <v>0.02016723413182529</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.196264649172651</v>
+        <v>-1.21660569827722</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2808135542050496</v>
+        <v>-0.298425254153283</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.5997240309707709</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2686151342952898</v>
+        <v>0.2795199387676609</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.099774916008237</v>
+        <v>-1.114039464295024</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2141837507812702</v>
+        <v>-0.2354833775307111</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.6205272898029341</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4953179602979852</v>
+        <v>0.5087238811541032</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9798385940129277</v>
+        <v>-0.9883713516694987</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1547723990477758</v>
+        <v>-0.1727713076998491</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6333564655261706</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6682365529258362</v>
+        <v>0.6788438677842815</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8331667702327656</v>
+        <v>-0.8409046482330799</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1301374257802987</v>
+        <v>-0.1492397218364038</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.6367999067052996</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8429432312754848</v>
+        <v>0.8562846173476294</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7151609826897318</v>
+        <v>-0.7254834000872218</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0791250400780647</v>
+        <v>-0.09361073805139493</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.6285165888634904</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9752096320575028</v>
+        <v>0.9908443639893826</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5444554609464296</v>
+        <v>-0.5439360346364004</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06117335199963036</v>
+        <v>-0.0750199982097125</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.6064654947901955</v>
       </c>
       <c r="E91" t="n">
-        <v>1.091342336846189</v>
+        <v>1.10972530616386</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3481799985775978</v>
+        <v>-0.3487057209641122</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08074785379212571</v>
+        <v>-0.09622360979275407</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.5700255810340924</v>
       </c>
       <c r="E92" t="n">
-        <v>1.148836533289939</v>
+        <v>1.167787723510399</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2090823548091347</v>
+        <v>-0.2084842275430404</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04270853368765198</v>
+        <v>-0.05876982480140421</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.5200900911744477</v>
       </c>
       <c r="E93" t="n">
-        <v>1.18631550258723</v>
+        <v>1.198210365086899</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1096248085915081</v>
+        <v>-0.1060533592052769</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04353961578369875</v>
+        <v>-0.05791041036117403</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.4594516944308471</v>
       </c>
       <c r="E94" t="n">
-        <v>1.162705215767719</v>
+        <v>1.179899800648808</v>
       </c>
       <c r="F94" t="n">
-        <v>0.03464663602867032</v>
+        <v>0.04196897298096111</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0113792570972831</v>
+        <v>-0.02307579318766851</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.3935835060863899</v>
       </c>
       <c r="E95" t="n">
-        <v>1.169092585361958</v>
+        <v>1.187547959559208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1109157325512951</v>
+        <v>0.1231978037548044</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.04655858445835347</v>
+        <v>-0.05893981886650468</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3279466240026194</v>
       </c>
       <c r="E96" t="n">
-        <v>1.089137136057247</v>
+        <v>1.106964476625098</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1864891126223051</v>
+        <v>0.203737214153518</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07972474136328025</v>
+        <v>-0.08771918448036646</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2678678862132196</v>
       </c>
       <c r="E97" t="n">
-        <v>1.036298888174304</v>
+        <v>1.055763208628308</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2320333558971405</v>
+        <v>0.2510207485573906</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04448717529472176</v>
+        <v>-0.05617741530862197</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.216118023971291</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9245687148678958</v>
+        <v>0.9395643950365274</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2140612055701292</v>
+        <v>0.2338214416189381</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.103651406026172</v>
+        <v>-0.1129963575493342</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1737042415331482</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8867985520331645</v>
+        <v>0.903583891942715</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2015430314984248</v>
+        <v>0.2164977871699027</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09135989070793495</v>
+        <v>-0.1004655913246594</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1354693402733535</v>
       </c>
       <c r="E100" t="n">
-        <v>0.834972398445218</v>
+        <v>0.847703065098298</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1916707835696269</v>
+        <v>0.2091093414145173</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09325500972998098</v>
+        <v>-0.1023937647482528</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1007566453373852</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7769965521503498</v>
+        <v>0.7873173955287184</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1751656190636679</v>
+        <v>0.1870258531426686</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08109413799881186</v>
+        <v>-0.09030214985842089</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.05964500389675476</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7653960312263637</v>
+        <v>0.7756255814956969</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1515773685118558</v>
+        <v>0.1608026945817991</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06669658509627446</v>
+        <v>-0.07527813734560582</v>
       </c>
     </row>
   </sheetData>
